--- a/packages.xlsx
+++ b/packages.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -520,6 +520,58 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Combo </t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>20000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>50 kg</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>basico</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>pulidora,  taladro</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>herramientas</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>30x30x30 cm</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>pendiente</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/packages.xlsx
+++ b/packages.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,6 +572,58 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Box Test</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>50 kg</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1 kg</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>standard</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5x5x5 cm</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
